--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1E143-0BB9-4FAE-84C2-47FFDCBCC823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40E1C82-4541-4C38-811B-38EF9AE221F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F9F652E2-80EF-4647-9542-5A84A3553F9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -66,138 +66,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Suman Mahapatra</t>
-  </si>
-  <si>
-    <t>Kanchan Jha</t>
-  </si>
-  <si>
-    <t>Paramita Koley</t>
-  </si>
-  <si>
-    <t>OM PRAKASH</t>
-  </si>
-  <si>
-    <t>Tikaram Sanyashi</t>
-  </si>
-  <si>
-    <t>Ashutosh Sao</t>
-  </si>
-  <si>
-    <t>Anima Pramanik</t>
-  </si>
-  <si>
-    <t>Aditi Panda</t>
-  </si>
-  <si>
-    <t>Sukanya Samanta</t>
-  </si>
-  <si>
-    <t>Nidhi Kumari</t>
-  </si>
-  <si>
-    <t>Uddipana Dowerah</t>
-  </si>
-  <si>
-    <t>Nehal Ahmad</t>
-  </si>
-  <si>
-    <t>NAELA RIZVI</t>
-  </si>
-  <si>
-    <t>PARTHA PAUL</t>
-  </si>
-  <si>
-    <t>suman.maha.cs@gmail.com</t>
-  </si>
-  <si>
-    <t>jha.kanchan15@gmail.com</t>
-  </si>
-  <si>
-    <t>paramita2000@gmail.com</t>
-  </si>
-  <si>
-    <t>omprakashphd@outlook.com</t>
-  </si>
-  <si>
-    <t>tikaram.sanyashi@ntnu.no</t>
-  </si>
-  <si>
-    <t>ashusao@gmail.com</t>
-  </si>
-  <si>
-    <t>apramanik17@gmail.com</t>
-  </si>
-  <si>
-    <t>pandaaditi91@gmail.com</t>
-  </si>
-  <si>
-    <t>susamanta1@gmail.com</t>
-  </si>
-  <si>
-    <t>nidhi3rdjan1995@gmail.com</t>
-  </si>
-  <si>
-    <t>dowerahuddipana@gmail.com</t>
-  </si>
-  <si>
-    <t>nehalahmadcse@gmail.com</t>
-  </si>
-  <si>
-    <t>aftab.bccl@gmail.com</t>
-  </si>
-  <si>
-    <t>ppaul@bitmesra.ac.in</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>OBC</t>
-  </si>
-  <si>
-    <t>BIT-07269</t>
-  </si>
-  <si>
-    <t>BIT-07359</t>
-  </si>
-  <si>
-    <t>BIT-07406</t>
-  </si>
-  <si>
-    <t>BIT-07472</t>
-  </si>
-  <si>
-    <t>BIT-06592</t>
-  </si>
-  <si>
-    <t>BIT-07730</t>
-  </si>
-  <si>
-    <t>BIT-07431</t>
-  </si>
-  <si>
-    <t>BIT-06530</t>
-  </si>
-  <si>
-    <t>BIT-06617</t>
-  </si>
-  <si>
-    <t>BIT-08007</t>
-  </si>
-  <si>
-    <t>BIT-08239</t>
-  </si>
-  <si>
-    <t>BIT-07943</t>
-  </si>
-  <si>
-    <t>BIT-07547</t>
-  </si>
-  <si>
-    <t>BIT-06395</t>
   </si>
   <si>
     <t>tudusp@gmail.com</t>
@@ -739,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623F33F5-1DBA-4099-8FDB-02AC89042246}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5"/>
@@ -785,21 +653,11 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="14">
-        <v>9681426203</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
@@ -810,21 +668,11 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15">
-        <v>8351968798</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
@@ -835,21 +683,11 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="15">
-        <v>9167202615</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
@@ -860,21 +698,11 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="15">
-        <v>6200603260</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
@@ -885,21 +713,11 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15">
-        <v>8486014008</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
@@ -910,21 +728,11 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="16">
-        <v>7898365197</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
@@ -935,21 +743,11 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="15">
-        <v>9748842522</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
@@ -960,21 +758,11 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15">
-        <v>8249953510</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
@@ -985,21 +773,11 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="15">
-        <v>9083252847</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
@@ -1010,21 +788,11 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="16">
-        <v>9123438772</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
@@ -1035,21 +803,11 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="16">
-        <v>7002716383</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
@@ -1060,21 +818,11 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="16">
-        <v>9350850160</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
@@ -1085,21 +833,11 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="15">
-        <v>9304091887</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
@@ -1110,21 +848,11 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="17">
-        <v>9470370361</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
@@ -1136,17 +864,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1159,15 +887,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
